--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://internationalassociation162-my.sharepoint.com/personal/c_pettifor_iau-aiu_net/Documents/WHED/Australia/CRICOS-Import/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://internationalassociation162-my.sharepoint.com/personal/c_pettifor_iau_global/Documents/WHED/Australia/CRICOS-Import/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="11_F25DC773A252ABDACC10486E81194A665ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFB23CFB-7D57-42F3-8E06-8B6BE5CAB2C0}"/>
+  <xr:revisionPtr revIDLastSave="192" documentId="11_F25DC773A252ABDACC10486E81194A665ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDB8233E-D90E-448D-B6E9-6BC7508AA9B5}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="whed_levels" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="97">
   <si>
     <t>Name English</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Website</t>
   </si>
   <si>
-    <t>Concat Address</t>
-  </si>
-  <si>
     <t>Postal Address Line 1</t>
   </si>
   <si>
@@ -242,9 +239,6 @@
     <t>Pall Mall</t>
   </si>
   <si>
-    <t>South Kensington</t>
-  </si>
-  <si>
     <t>SW11</t>
   </si>
   <si>
@@ -272,9 +266,6 @@
     <t>Row Index</t>
   </si>
   <si>
-    <t>Blue62</t>
-  </si>
-  <si>
     <t>Acorn Institute</t>
   </si>
   <si>
@@ -297,13 +288,55 @@
   </si>
   <si>
     <t>whed_cred_name</t>
+  </si>
+  <si>
+    <t>www.oakacademy.org</t>
+  </si>
+  <si>
+    <t>UKGOV123</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Bachelor</t>
+  </si>
+  <si>
+    <t>Bachelor of Laboratory Sciences</t>
+  </si>
+  <si>
+    <t>STEMBIO123</t>
+  </si>
+  <si>
+    <t>Natural &amp; Life Sciences</t>
+  </si>
+  <si>
+    <t>Life Sciences</t>
+  </si>
+  <si>
+    <t>Biology</t>
+  </si>
+  <si>
+    <t>Laboratory Science</t>
+  </si>
+  <si>
+    <t>Battersea</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>Wandsworth</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -349,6 +382,14 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -367,11 +408,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,8 +422,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{6773BC85-4182-417B-AA8A-864573E9288F}"/>
   </cellStyles>
@@ -396,10 +440,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -667,241 +707,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974E8CAB-D495-47CC-A487-D7F0464F0933}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>37</v>
-      </c>
       <c r="C2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="C4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>42</v>
-      </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="5"/>
       <c r="C19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -914,13 +961,19 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -943,7 +996,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -972,35 +1025,35 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G2" t="str">
         <f>_xlfn.TEXTJOIN(" ", TRUE, H2:M2)</f>
         <v>Unit 1, 1 Smith Street, Pall Mall, South Kensington Kensington SW11 Michigan Australia</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1012,18 +1065,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5C3BA5-4966-476E-B239-1E316FE5762C}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="18.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -1056,10 +1123,7 @@
         <v>20</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O1" s="2"/>
     </row>
@@ -1068,59 +1132,75 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" t="str">
-        <f>_xlfn.TEXTJOIN(" ", TRUE, G2:M2)</f>
-        <v>Unit 1 1 Smith Street Pall Mall South Kensington Kensington Michigan SW11</v>
+        <v>76</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" t="s">
+        <v>67</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H2" t="s">
         <v>65</v>
       </c>
       <c r="I2" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
+      </c>
+      <c r="K2" t="s">
+        <v>95</v>
+      </c>
+      <c r="L2" t="s">
         <v>66</v>
       </c>
-      <c r="J2" t="s">
-        <v>67</v>
-      </c>
-      <c r="K2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" t="s">
-        <v>71</v>
-      </c>
       <c r="M2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{254C1AB2-F956-4715-A313-68F8DF5000E8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D569F62-FAA7-470F-8473-61A4FFD6C92E}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -1159,9 +1239,40 @@
         <v>33</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O1" s="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="N2" t="s">
+        <v>85</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
